--- a/日常使用/1.xlsx
+++ b/日常使用/1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="12075"/>
+    <workbookView windowWidth="15450" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月'!$A$2:$H$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1380,14 +1380,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1398,76 +1398,50 @@
     <col min="5" max="5" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7">
-        <v>45113</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:8">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7">
-        <v>45138</v>
+        <v>45113</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -1478,48 +1452,48 @@
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:8">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11">
-        <v>45133</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45138</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:8">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45112</v>
+        <v>18</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45133</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1530,48 +1504,48 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="7">
-        <v>45113</v>
+        <v>45112</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:8">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>26</v>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7">
-        <v>45120</v>
+        <v>45113</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1582,22 +1556,22 @@
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:8">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7">
-        <v>45113</v>
+        <v>45120</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1608,22 +1582,22 @@
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:8">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7">
-        <v>45120</v>
+        <v>45113</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1634,22 +1608,22 @@
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:8">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7">
-        <v>45131</v>
+        <v>45120</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1660,22 +1634,22 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:8">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7">
-        <v>45136</v>
+        <v>45131</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1686,22 +1660,22 @@
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:8">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7">
-        <v>45138</v>
+        <v>45136</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1712,22 +1686,22 @@
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:8">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7">
-        <v>45119</v>
+        <v>45138</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1738,22 +1712,22 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:8">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7">
-        <v>45135</v>
+        <v>45119</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1764,19 +1738,19 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:8">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7">
         <v>45135</v>
@@ -1788,78 +1762,78 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="24" customHeight="1" spans="1:8">
+    <row r="16" ht="21" customHeight="1" spans="1:8">
       <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7">
+        <v>45135</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:8">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>45138</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="1:8">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="7">
-        <v>45132</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:8">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18" s="7">
-        <v>45126</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>45132</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="8">
@@ -1868,19 +1842,19 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:8">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7">
         <v>45126</v>
@@ -1894,22 +1868,22 @@
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:8">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>12</v>
@@ -1920,22 +1894,22 @@
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:8">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7">
-        <v>45132</v>
+        <v>45125</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>12</v>
@@ -1946,22 +1920,24 @@
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:8">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7">
+        <v>45132</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="8">
@@ -1970,23 +1946,21 @@
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:8">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7">
-        <v>45126</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="7" t="s">
         <v>12</v>
       </c>
@@ -1996,22 +1970,24 @@
     </row>
     <row r="24" ht="21" customHeight="1" spans="1:8">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="7">
+        <v>45126</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="8">
@@ -2020,23 +1996,21 @@
     </row>
     <row r="25" ht="21" customHeight="1" spans="1:8">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="7">
-        <v>45119</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2046,22 +2020,22 @@
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:8">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26" s="7">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
@@ -2072,19 +2046,19 @@
     </row>
     <row r="27" ht="21" customHeight="1" spans="1:8">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" s="7">
         <v>45117</v>
@@ -2098,22 +2072,22 @@
     </row>
     <row r="28" ht="21" customHeight="1" spans="1:8">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>81</v>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7">
-        <v>45110</v>
+        <v>45117</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>12</v>
@@ -2124,22 +2098,22 @@
     </row>
     <row r="29" ht="21" customHeight="1" spans="1:8">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7">
-        <v>45126</v>
+        <v>45110</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>12</v>
@@ -2150,22 +2124,22 @@
     </row>
     <row r="30" ht="21" customHeight="1" spans="1:8">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F30" s="7">
-        <v>45114</v>
+        <v>45126</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>12</v>
@@ -2176,22 +2150,22 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:8">
       <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>90</v>
+      <c r="C31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F31" s="7">
-        <v>45138</v>
+        <v>45114</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -2202,33 +2176,59 @@
     </row>
     <row r="32" ht="21" customHeight="1" spans="1:8">
       <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45138</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" ht="21" customHeight="1" spans="1:8">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>45133</v>
       </c>
-      <c r="G32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="17">
+      <c r="G33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="17">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32">
-    <sortState ref="A1:H32">
+  <autoFilter ref="A2:H33">
+    <sortState ref="A2:H33">
       <sortCondition ref="B2"/>
     </sortState>
     <extLst/>
